--- a/Samples_NUMEX_SF2024.xlsx
+++ b/Samples_NUMEX_SF2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATAonC\Dokt Dipl Prakt\2024 Andrea Chavez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467410C8-6AE9-42FB-8B68-93A9453C73A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189C5652-108B-4EA7-90F1-4FABE26A5046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36030" yWindow="855" windowWidth="18225" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35055" yWindow="945" windowWidth="19935" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numex SF2024" sheetId="6" r:id="rId1"/>
@@ -352,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-407]General"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +390,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -411,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -419,12 +424,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -455,6 +475,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -737,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BC68E5-5442-4779-BE9E-A24BC17C8BF1}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,7 +774,7 @@
     <col min="4" max="4" width="25.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>96</v>
       </c>
@@ -765,7 +788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>592004</v>
       </c>
@@ -778,8 +801,11 @@
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>592005</v>
       </c>
@@ -792,8 +818,11 @@
       <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>592012</v>
       </c>
@@ -806,8 +835,11 @@
       <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>592014</v>
       </c>
@@ -820,8 +852,11 @@
       <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>592015</v>
       </c>
@@ -834,8 +869,11 @@
       <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>592016</v>
       </c>
@@ -848,8 +886,11 @@
       <c r="D7" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>592019</v>
       </c>
@@ -862,8 +903,11 @@
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>592029</v>
       </c>
@@ -876,8 +920,11 @@
       <c r="D9" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>592031</v>
       </c>
@@ -890,8 +937,11 @@
       <c r="D10" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>592033</v>
       </c>
@@ -904,8 +954,11 @@
       <c r="D11" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>592037</v>
       </c>
@@ -918,8 +971,11 @@
       <c r="D12" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>592041</v>
       </c>
@@ -932,8 +988,11 @@
       <c r="D13" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>592043</v>
       </c>
@@ -946,8 +1005,11 @@
       <c r="D14" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>592046</v>
       </c>
@@ -960,8 +1022,11 @@
       <c r="D15" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>592052</v>
       </c>
@@ -974,8 +1039,11 @@
       <c r="D16" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>592055</v>
       </c>
@@ -988,8 +1056,11 @@
       <c r="D17" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>592064</v>
       </c>
@@ -1002,8 +1073,11 @@
       <c r="D18" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>592065</v>
       </c>
@@ -1016,8 +1090,11 @@
       <c r="D19" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>592073</v>
       </c>
@@ -1030,8 +1107,11 @@
       <c r="D20" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>592074</v>
       </c>
@@ -1044,8 +1124,11 @@
       <c r="D21" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>592079</v>
       </c>
@@ -1058,8 +1141,11 @@
       <c r="D22" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>592087</v>
       </c>
@@ -1072,8 +1158,11 @@
       <c r="D23" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>592091</v>
       </c>
@@ -1086,8 +1175,11 @@
       <c r="D24" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>592092</v>
       </c>
@@ -1100,8 +1192,11 @@
       <c r="D25" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>592097</v>
       </c>
@@ -1114,8 +1209,11 @@
       <c r="D26" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>592101</v>
       </c>
@@ -1128,8 +1226,11 @@
       <c r="D27" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>592103</v>
       </c>
@@ -1142,8 +1243,11 @@
       <c r="D28" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>592105</v>
       </c>
@@ -1156,8 +1260,11 @@
       <c r="D29" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>592107</v>
       </c>
@@ -1170,10 +1277,13 @@
       <c r="D30" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="12">
-        <v>592005</v>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="13">
+        <v>592108</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>33</v>
@@ -1184,10 +1294,13 @@
       <c r="D31" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="12">
-        <v>592012</v>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="13">
+        <v>592115</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>34</v>
@@ -1198,10 +1311,13 @@
       <c r="D32" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="12">
-        <v>592014</v>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="13">
+        <v>592117</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>35</v>
@@ -1212,10 +1328,13 @@
       <c r="D33" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="12">
-        <v>592015</v>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="13">
+        <v>592118</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>36</v>
@@ -1226,10 +1345,13 @@
       <c r="D34" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="12">
-        <v>592016</v>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="13">
+        <v>592123</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>37</v>
@@ -1240,10 +1362,13 @@
       <c r="D35" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="12">
-        <v>592019</v>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="13">
+        <v>592124</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>38</v>
@@ -1254,10 +1379,13 @@
       <c r="D36" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="12">
-        <v>592029</v>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="13">
+        <v>592129</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>39</v>
@@ -1268,10 +1396,13 @@
       <c r="D37" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="12">
-        <v>592031</v>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="13">
+        <v>592132</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>40</v>
@@ -1282,10 +1413,13 @@
       <c r="D38" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="12">
-        <v>592033</v>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="13">
+        <v>592133</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>41</v>
@@ -1296,10 +1430,13 @@
       <c r="D39" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="12">
-        <v>592037</v>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="13">
+        <v>592136</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>42</v>
@@ -1310,10 +1447,13 @@
       <c r="D40" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="12">
-        <v>592041</v>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="13">
+        <v>592139</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>43</v>
@@ -1324,10 +1464,13 @@
       <c r="D41" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="12">
-        <v>592043</v>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="13">
+        <v>592141</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>44</v>
@@ -1338,10 +1481,13 @@
       <c r="D42" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="12">
-        <v>592046</v>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="13">
+        <v>592148</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>45</v>
@@ -1352,10 +1498,13 @@
       <c r="D43" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="12">
-        <v>592052</v>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="13">
+        <v>592151</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>46</v>
@@ -1366,10 +1515,13 @@
       <c r="D44" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="12">
-        <v>592055</v>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="13">
+        <v>592156</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>47</v>
@@ -1380,10 +1532,13 @@
       <c r="D45" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="12">
-        <v>592064</v>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="13">
+        <v>592158</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>48</v>
@@ -1394,10 +1549,13 @@
       <c r="D46" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="12">
-        <v>592065</v>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="13">
+        <v>592162</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>49</v>
@@ -1408,10 +1566,13 @@
       <c r="D47" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="12">
-        <v>592073</v>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="13">
+        <v>592172</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>50</v>
@@ -1422,10 +1583,13 @@
       <c r="D48" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="12">
-        <v>592074</v>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="13">
+        <v>592180</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>51</v>
@@ -1436,10 +1600,13 @@
       <c r="D49" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="12">
-        <v>592079</v>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="13">
+        <v>592198</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>52</v>
@@ -1450,10 +1617,13 @@
       <c r="D50" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="12">
-        <v>592087</v>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="13">
+        <v>592206</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>53</v>
@@ -1464,10 +1634,13 @@
       <c r="D51" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="12">
-        <v>592091</v>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="13">
+        <v>592220</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>54</v>
@@ -1478,10 +1651,13 @@
       <c r="D52" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="12">
-        <v>592092</v>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="13">
+        <v>592222</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>55</v>
@@ -1492,10 +1668,13 @@
       <c r="D53" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="12">
-        <v>592097</v>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="13">
+        <v>592223</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>56</v>
@@ -1506,10 +1685,13 @@
       <c r="D54" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="12">
-        <v>592101</v>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="13">
+        <v>592225</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>57</v>
@@ -1520,10 +1702,13 @@
       <c r="D55" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="12">
-        <v>592103</v>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="13">
+        <v>592227</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>58</v>
@@ -1534,10 +1719,13 @@
       <c r="D56" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="12">
-        <v>592105</v>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="13">
+        <v>592231</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>59</v>
@@ -1548,10 +1736,13 @@
       <c r="D57" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="12">
-        <v>592107</v>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="13">
+        <v>592235</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>60</v>
@@ -1562,10 +1753,13 @@
       <c r="D58" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="12">
-        <v>592005</v>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="13">
+        <v>592246</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>61</v>
@@ -1576,10 +1770,13 @@
       <c r="D59" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="12">
-        <v>592012</v>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="13">
+        <v>592249</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>62</v>
@@ -1590,10 +1787,13 @@
       <c r="D60" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="12">
-        <v>592014</v>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="13">
+        <v>592250</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>63</v>
@@ -1604,10 +1804,13 @@
       <c r="D61" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="12">
-        <v>592015</v>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="13">
+        <v>592251</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>64</v>
@@ -1618,10 +1821,13 @@
       <c r="D62" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="12">
-        <v>592016</v>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="13">
+        <v>592253</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>65</v>
@@ -1632,10 +1838,13 @@
       <c r="D63" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="12">
-        <v>592019</v>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="13">
+        <v>592269</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>66</v>
@@ -1646,10 +1855,13 @@
       <c r="D64" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="12">
-        <v>592029</v>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="13">
+        <v>592272</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>67</v>
@@ -1660,10 +1872,13 @@
       <c r="D65" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="12">
-        <v>592031</v>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="13">
+        <v>592273</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>68</v>
@@ -1674,10 +1889,13 @@
       <c r="D66" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="12">
-        <v>592033</v>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="13">
+        <v>592277</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>69</v>
@@ -1688,10 +1906,13 @@
       <c r="D67" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="12">
-        <v>592037</v>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="13">
+        <v>592286</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>70</v>
@@ -1702,10 +1923,13 @@
       <c r="D68" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="12">
-        <v>592041</v>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="13">
+        <v>592291</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>71</v>
@@ -1716,10 +1940,13 @@
       <c r="D69" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="12">
-        <v>592043</v>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="13">
+        <v>592293</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>72</v>
@@ -1730,10 +1957,13 @@
       <c r="D70" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="12">
-        <v>592046</v>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="13">
+        <v>592294</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>73</v>
@@ -1744,10 +1974,13 @@
       <c r="D71" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="12">
-        <v>592052</v>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="13">
+        <v>592299</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>74</v>
@@ -1758,10 +1991,13 @@
       <c r="D72" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="12">
-        <v>592055</v>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="13">
+        <v>592302</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>75</v>
@@ -1772,10 +2008,13 @@
       <c r="D73" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="12">
-        <v>592064</v>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="13">
+        <v>592305</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>76</v>
@@ -1786,10 +2025,13 @@
       <c r="D74" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="12">
-        <v>592065</v>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="13">
+        <v>592315</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>77</v>
@@ -1800,10 +2042,13 @@
       <c r="D75" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="12">
-        <v>592073</v>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="13">
+        <v>592317</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>78</v>
@@ -1814,10 +2059,13 @@
       <c r="D76" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="12">
-        <v>592074</v>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="13">
+        <v>592320</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>79</v>
@@ -1828,10 +2076,13 @@
       <c r="D77" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="12">
-        <v>592079</v>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="13">
+        <v>592323</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>80</v>
@@ -1842,10 +2093,13 @@
       <c r="D78" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="12">
-        <v>592087</v>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="13">
+        <v>592324</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>81</v>
@@ -1856,10 +2110,13 @@
       <c r="D79" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="12">
-        <v>592091</v>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="13">
+        <v>592325</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>82</v>
@@ -1870,10 +2127,13 @@
       <c r="D80" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="12">
-        <v>592092</v>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="13">
+        <v>592333</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>83</v>
@@ -1884,10 +2144,13 @@
       <c r="D81" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="12">
-        <v>592097</v>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="13">
+        <v>592334</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>84</v>
@@ -1898,10 +2161,13 @@
       <c r="D82" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="12">
-        <v>592101</v>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="13">
+        <v>592339</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>85</v>
@@ -1912,10 +2178,13 @@
       <c r="D83" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="12">
-        <v>592103</v>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="13">
+        <v>592344</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>86</v>
@@ -1926,10 +2195,13 @@
       <c r="D84" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="12">
-        <v>592105</v>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="13">
+        <v>592351</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>87</v>
@@ -1940,10 +2212,13 @@
       <c r="D85" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="12">
-        <v>592107</v>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="13">
+        <v>592353</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>88</v>
@@ -1954,10 +2229,13 @@
       <c r="D86" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="12">
-        <v>592005</v>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="13">
+        <v>592359</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>89</v>
@@ -1968,10 +2246,13 @@
       <c r="D87" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="12">
-        <v>592012</v>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="13">
+        <v>592361</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>90</v>
@@ -1982,10 +2263,13 @@
       <c r="D88" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="12">
-        <v>592014</v>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="13">
+        <v>592365</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>91</v>
@@ -1996,10 +2280,13 @@
       <c r="D89" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="12">
-        <v>592015</v>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="13">
+        <v>592368</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>92</v>
@@ -2010,10 +2297,13 @@
       <c r="D90" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="12">
-        <v>592016</v>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="13">
+        <v>592377</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>93</v>
@@ -2024,10 +2314,13 @@
       <c r="D91" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="12">
-        <v>592019</v>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="13">
+        <v>592378</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>94</v>
@@ -2038,10 +2331,13 @@
       <c r="D92" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="12">
-        <v>592029</v>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="13">
+        <v>592379</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>95</v>
@@ -2052,6 +2348,14 @@
       <c r="D93" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
